--- a/RZLT.xlsx
+++ b/RZLT.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BF36BF-8DFB-4269-8976-31DFB325B776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB73FD88-BA7A-4868-89D0-0F7F14AC3F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30675" yWindow="1770" windowWidth="29520" windowHeight="18420" xr2:uid="{A029EC9C-0930-4100-8853-B9FBECC6760F}"/>
+    <workbookView xWindow="-31920" yWindow="1740" windowWidth="30165" windowHeight="16515" xr2:uid="{A029EC9C-0930-4100-8853-B9FBECC6760F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="ersodetug" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Price</t>
   </si>
@@ -56,9 +57,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q324</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -96,6 +94,24 @@
   </si>
   <si>
     <t>n=56</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>ersodetug</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -216,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -224,7 +240,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -232,7 +247,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -262,8 +276,8 @@
       <xdr:rowOff>48961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>181945</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76167</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>14299</xdr:rowOff>
     </xdr:to>
@@ -621,114 +635,100 @@
   <dimension ref="B2:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>5</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="5"/>
       <c r="L3" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>57.943066000000002</v>
+        <v>69.94</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
+      <c r="I4" s="5"/>
       <c r="L4" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="2">
         <f>+M2*M3</f>
-        <v>289.71532999999999</v>
+        <v>184.64160000000001</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
+      <c r="I5" s="5"/>
       <c r="L5" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="2">
-        <f>10.472+97.801+9.552</f>
-        <v>117.82499999999999</v>
+        <v>105.3</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
+      <c r="I6" s="5"/>
       <c r="L6" t="s">
         <v>4</v>
       </c>
@@ -736,48 +736,89 @@
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
+      <c r="I7" s="5"/>
       <c r="L7" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>171.89033000000001</v>
+        <v>79.341600000000014</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15699C7A-68C4-4CF9-B230-12AE1C0337DB}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RZLT.xlsx
+++ b/RZLT.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB73FD88-BA7A-4868-89D0-0F7F14AC3F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9282E113-3601-4F77-9F16-B4E387544FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31920" yWindow="1740" windowWidth="30165" windowHeight="16515" xr2:uid="{A029EC9C-0930-4100-8853-B9FBECC6760F}"/>
+    <workbookView xWindow="-25065" yWindow="2250" windowWidth="21435" windowHeight="16290" xr2:uid="{A029EC9C-0930-4100-8853-B9FBECC6760F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="ersodetug" sheetId="2" r:id="rId2"/>
+    <sheet name="Model" sheetId="3" r:id="rId2"/>
+    <sheet name="ersodetug" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Price</t>
   </si>
@@ -112,16 +113,86 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>Patients</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Phase III sunRIZE n=56</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -229,10 +300,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -247,8 +319,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -270,23 +349,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>606591</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>48961</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76167</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>14299</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>150928</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>131086</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B204E4-5085-1AFF-038A-3EB481FD809E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D9C400F-B1FC-4FE4-A842-606188D048AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -302,8 +381,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="606591" y="1813593"/>
-          <a:ext cx="8749433" cy="2692495"/>
+          <a:off x="1764632" y="2085474"/>
+          <a:ext cx="8713401" cy="2697823"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -634,14 +713,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA641F6-4A19-4DB0-902F-30A962460F9E}">
   <dimension ref="B2:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
@@ -667,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>2.64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -688,7 +767,8 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>69.94</v>
+        <f>69.94+20.786+6.905</f>
+        <v>97.631</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>24</v>
@@ -710,7 +790,7 @@
       </c>
       <c r="M4" s="2">
         <f>+M2*M3</f>
-        <v>184.64160000000001</v>
+        <v>390.524</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -720,7 +800,8 @@
         <v>3</v>
       </c>
       <c r="M5" s="2">
-        <v>105.3</v>
+        <f>105.3+90</f>
+        <v>195.3</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>24</v>
@@ -747,7 +828,7 @@
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>79.341600000000014</v>
+        <v>195.22399999999999</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -772,16 +853,703 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54A3677-E441-4308-A8CD-E4513D8CC4E1}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>2025</v>
+      </c>
+      <c r="D2">
+        <f>+C2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="E2">
+        <f>+D2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="F2">
+        <f>+E2+1</f>
+        <v>2028</v>
+      </c>
+      <c r="G2">
+        <f>+F2+1</f>
+        <v>2029</v>
+      </c>
+      <c r="H2">
+        <f>+G2+1</f>
+        <v>2030</v>
+      </c>
+      <c r="I2">
+        <f>+H2+1</f>
+        <v>2031</v>
+      </c>
+      <c r="J2">
+        <f>+I2+1</f>
+        <v>2032</v>
+      </c>
+      <c r="K2">
+        <f>+J2+1</f>
+        <v>2033</v>
+      </c>
+      <c r="L2">
+        <f>+K2+1</f>
+        <v>2034</v>
+      </c>
+      <c r="M2">
+        <f>+L2+1</f>
+        <v>2035</v>
+      </c>
+      <c r="N2">
+        <f>+M2+1</f>
+        <v>2036</v>
+      </c>
+      <c r="O2">
+        <f>+N2+1</f>
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2">
+        <v>250</v>
+      </c>
+      <c r="F3" s="2">
+        <v>400</v>
+      </c>
+      <c r="G3" s="2">
+        <v>450</v>
+      </c>
+      <c r="H3" s="2">
+        <f>+G3+50</f>
+        <v>500</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:O3" si="0">+H3+50</f>
+        <v>550</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="15">
+        <f>+C4*1.1</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E4" s="15">
+        <f>+D4*1.1</f>
+        <v>0.60500000000000009</v>
+      </c>
+      <c r="F4" s="15">
+        <f>+E4*1.01</f>
+        <v>0.61105000000000009</v>
+      </c>
+      <c r="G4" s="15">
+        <f t="shared" ref="G4:O4" si="1">+F4*1.01</f>
+        <v>0.61716050000000011</v>
+      </c>
+      <c r="H4" s="15">
+        <f t="shared" si="1"/>
+        <v>0.62333210500000014</v>
+      </c>
+      <c r="I4" s="15">
+        <f t="shared" si="1"/>
+        <v>0.6295654260500001</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" si="1"/>
+        <v>0.63586108031050015</v>
+      </c>
+      <c r="K4" s="15">
+        <f t="shared" si="1"/>
+        <v>0.64221969111360511</v>
+      </c>
+      <c r="L4" s="15">
+        <f t="shared" si="1"/>
+        <v>0.64864188802474121</v>
+      </c>
+      <c r="M4" s="15">
+        <f t="shared" si="1"/>
+        <v>0.65512830690498858</v>
+      </c>
+      <c r="N4" s="15">
+        <f t="shared" si="1"/>
+        <v>0.66167958997403842</v>
+      </c>
+      <c r="O4" s="15">
+        <f t="shared" si="1"/>
+        <v>0.66829638587377882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="16">
+        <f>+C3*C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <f t="shared" ref="D5:H5" si="2">+D3*D4</f>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" si="2"/>
+        <v>151.25000000000003</v>
+      </c>
+      <c r="F5" s="16">
+        <f t="shared" si="2"/>
+        <v>244.42000000000004</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" ref="G5" si="3">+G3*G4</f>
+        <v>277.72222500000004</v>
+      </c>
+      <c r="H5" s="16">
+        <f t="shared" ref="H5" si="4">+H3*H4</f>
+        <v>311.66605250000009</v>
+      </c>
+      <c r="I5" s="16">
+        <f t="shared" ref="I5" si="5">+I3*I4</f>
+        <v>346.26098432750007</v>
+      </c>
+      <c r="J5" s="16">
+        <f t="shared" ref="J5" si="6">+J3*J4</f>
+        <v>381.51664818630007</v>
+      </c>
+      <c r="K5" s="16">
+        <f t="shared" ref="K5" si="7">+K3*K4</f>
+        <v>417.44279922384334</v>
+      </c>
+      <c r="L5" s="16">
+        <f t="shared" ref="L5" si="8">+L3*L4</f>
+        <v>454.04932161731887</v>
+      </c>
+      <c r="M5" s="16">
+        <f t="shared" ref="M5" si="9">+M3*M4</f>
+        <v>491.34623017874145</v>
+      </c>
+      <c r="N5" s="16">
+        <f t="shared" ref="N5" si="10">+N3*N4</f>
+        <v>529.34367197923075</v>
+      </c>
+      <c r="O5" s="16">
+        <f t="shared" ref="O5" si="11">+O3*O4</f>
+        <v>568.05192799271197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2">
+        <f>+C5*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:O6" si="12">+D5*0.1</f>
+        <v>5.5000000000000009</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="12"/>
+        <v>15.125000000000004</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="12"/>
+        <v>24.442000000000007</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="12"/>
+        <v>27.772222500000005</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="12"/>
+        <v>31.166605250000011</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="12"/>
+        <v>34.626098432750005</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="12"/>
+        <v>38.15166481863001</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="12"/>
+        <v>41.744279922384337</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="12"/>
+        <v>45.404932161731892</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="12"/>
+        <v>49.134623017874148</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="12"/>
+        <v>52.934367197923081</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="12"/>
+        <v>56.805192799271197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2">
+        <f>+C5-C6</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:O7" si="13">+D5-D6</f>
+        <v>49.500000000000007</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="13"/>
+        <v>136.12500000000003</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="13"/>
+        <v>219.97800000000004</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="13"/>
+        <v>249.95000250000004</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="13"/>
+        <v>280.49944725000006</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="13"/>
+        <v>311.63488589475008</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="13"/>
+        <v>343.36498336767005</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="13"/>
+        <v>375.69851930145899</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="13"/>
+        <v>408.64438945558697</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="13"/>
+        <v>442.21160716086729</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="13"/>
+        <v>476.4093047813077</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="13"/>
+        <v>511.24673519344077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2">
+        <f>+F5*0.2</f>
+        <v>48.884000000000015</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:O8" si="14">+G5*0.2</f>
+        <v>55.54444500000001</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="14"/>
+        <v>62.333210500000021</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="14"/>
+        <v>69.252196865500011</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="14"/>
+        <v>76.30332963726002</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="14"/>
+        <v>83.488559844768673</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="14"/>
+        <v>90.809864323463785</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="14"/>
+        <v>98.269246035748296</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="14"/>
+        <v>105.86873439584616</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="14"/>
+        <v>113.61038559854239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2">
+        <f>+C7-C8</f>
+        <v>-50</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9:O9" si="15">+D7-D8</f>
+        <v>-0.49999999999999289</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="15"/>
+        <v>86.125000000000028</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="15"/>
+        <v>171.09400000000002</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="15"/>
+        <v>194.40555750000004</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="15"/>
+        <v>218.16623675000005</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="15"/>
+        <v>242.38268902925006</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="15"/>
+        <v>267.06165373041006</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="15"/>
+        <v>292.20995945669029</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="15"/>
+        <v>317.83452513212319</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="15"/>
+        <v>343.94236112511896</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="15"/>
+        <v>370.54057038546154</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="15"/>
+        <v>397.63634959489838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2">
+        <f>+C9+C10</f>
+        <v>-50</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11:O11" si="16">+D9+D10</f>
+        <v>-0.49999999999999289</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="16"/>
+        <v>86.125000000000028</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="16"/>
+        <v>171.09400000000002</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="16"/>
+        <v>194.40555750000004</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="16"/>
+        <v>218.16623675000005</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="16"/>
+        <v>242.38268902925006</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="16"/>
+        <v>267.06165373041006</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="16"/>
+        <v>292.20995945669029</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="16"/>
+        <v>317.83452513212319</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="16"/>
+        <v>343.94236112511896</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="16"/>
+        <v>370.54057038546154</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="16"/>
+        <v>397.63634959489838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <f>+E11*0.2</f>
+        <v>17.225000000000005</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" ref="F12:O12" si="17">+F11*0.2</f>
+        <v>34.218800000000009</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="17"/>
+        <v>38.88111150000001</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="17"/>
+        <v>43.633247350000012</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="17"/>
+        <v>48.476537805850015</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="17"/>
+        <v>53.412330746082013</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="17"/>
+        <v>58.441991891338063</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="17"/>
+        <v>63.566905026424642</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="17"/>
+        <v>68.788472225023796</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="17"/>
+        <v>74.10811407709231</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="17"/>
+        <v>79.527269918979684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2">
+        <f>+C11-C12</f>
+        <v>-50</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:O13" si="18">+D11-D12</f>
+        <v>-0.49999999999999289</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="18"/>
+        <v>68.90000000000002</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="18"/>
+        <v>136.87520000000001</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="18"/>
+        <v>155.52444600000004</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="18"/>
+        <v>174.53298940000005</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="18"/>
+        <v>193.90615122340006</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="18"/>
+        <v>213.64932298432805</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="18"/>
+        <v>233.76796756535222</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="18"/>
+        <v>254.26762010569854</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="18"/>
+        <v>275.15388890009518</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="18"/>
+        <v>296.43245630836924</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="18"/>
+        <v>318.10907967591868</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17" s="2">
+        <f>NPV(Q15,C13:O13)</f>
+        <v>1053.1443670097135</v>
+      </c>
+    </row>
+    <row r="18" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>Q17/Main!M3</f>
+        <v>10.786987401642035</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{3316153C-99A2-48E4-BDE1-E1E738EEBF01}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15699C7A-68C4-4CF9-B230-12AE1C0337DB}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -791,7 +1559,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -818,7 +1586,16 @@
         <v>23</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{59C8F558-7B3F-4FD6-B9A0-6F02CEBA9B37}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>